--- a/data/pca/factorExposure/factorExposure_2015-10-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01644551194209225</v>
+        <v>0.01658715836155868</v>
       </c>
       <c r="C2">
-        <v>0.02736372657586014</v>
+        <v>0.03363596175975792</v>
       </c>
       <c r="D2">
-        <v>-0.1103572549792127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1267917661847549</v>
+      </c>
+      <c r="E2">
+        <v>0.05604892204924479</v>
+      </c>
+      <c r="F2">
+        <v>-0.03163776122427994</v>
+      </c>
+      <c r="G2">
+        <v>0.04279319366193238</v>
+      </c>
+      <c r="H2">
+        <v>0.1090035731731124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01764966051845318</v>
+        <v>0.01238903774408947</v>
       </c>
       <c r="C3">
-        <v>0.05048308593426199</v>
+        <v>0.04095736643643163</v>
       </c>
       <c r="D3">
-        <v>-0.08406425466847832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05518649441020679</v>
+      </c>
+      <c r="E3">
+        <v>0.03930991511855443</v>
+      </c>
+      <c r="F3">
+        <v>-0.07191871999200201</v>
+      </c>
+      <c r="G3">
+        <v>0.1186314945971471</v>
+      </c>
+      <c r="H3">
+        <v>0.07964465815915032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04637498828751144</v>
+        <v>0.0491677154928761</v>
       </c>
       <c r="C4">
-        <v>0.05991006654135872</v>
+        <v>0.07189315989289512</v>
       </c>
       <c r="D4">
-        <v>-0.1251032830246845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1462417562543069</v>
+      </c>
+      <c r="E4">
+        <v>0.05195282903118869</v>
+      </c>
+      <c r="F4">
+        <v>-0.04486141202523526</v>
+      </c>
+      <c r="G4">
+        <v>-0.04133607187249562</v>
+      </c>
+      <c r="H4">
+        <v>-0.004089916824375559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03560363306585079</v>
+        <v>0.03775803310736146</v>
       </c>
       <c r="C6">
-        <v>0.02415486267776847</v>
+        <v>0.02858742097847538</v>
       </c>
       <c r="D6">
-        <v>-0.1533340240400398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.139806829192642</v>
+      </c>
+      <c r="E6">
+        <v>0.01418537642182411</v>
+      </c>
+      <c r="F6">
+        <v>-0.02911257953469643</v>
+      </c>
+      <c r="G6">
+        <v>-0.02217374949765891</v>
+      </c>
+      <c r="H6">
+        <v>0.05778036215303411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0170027719552171</v>
+        <v>0.01368866586503924</v>
       </c>
       <c r="C7">
-        <v>0.02635195910936123</v>
+        <v>0.03274190876220116</v>
       </c>
       <c r="D7">
-        <v>-0.1050997524146517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0961996454921204</v>
+      </c>
+      <c r="E7">
+        <v>0.0141977607056925</v>
+      </c>
+      <c r="F7">
+        <v>-0.03003635918923564</v>
+      </c>
+      <c r="G7">
+        <v>-0.0001856401490812951</v>
+      </c>
+      <c r="H7">
+        <v>0.08090567674844129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009309435392800089</v>
+        <v>0.007990558014557369</v>
       </c>
       <c r="C8">
-        <v>0.03150633699934816</v>
+        <v>0.03597722824262817</v>
       </c>
       <c r="D8">
-        <v>-0.06381459642129624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07612282859223896</v>
+      </c>
+      <c r="E8">
+        <v>0.02889246774224764</v>
+      </c>
+      <c r="F8">
+        <v>-0.06884205306071892</v>
+      </c>
+      <c r="G8">
+        <v>0.02652183076076462</v>
+      </c>
+      <c r="H8">
+        <v>0.06214521932849244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03977425204148949</v>
+        <v>0.04018800912350327</v>
       </c>
       <c r="C9">
-        <v>0.05303702879516115</v>
+        <v>0.06465845839116213</v>
       </c>
       <c r="D9">
-        <v>-0.1125765465799042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1221349096810408</v>
+      </c>
+      <c r="E9">
+        <v>0.03927972588300394</v>
+      </c>
+      <c r="F9">
+        <v>-0.02597111010191543</v>
+      </c>
+      <c r="G9">
+        <v>-0.02435623794557204</v>
+      </c>
+      <c r="H9">
+        <v>0.002152523299189127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1144481957364414</v>
+        <v>0.1481942362800299</v>
       </c>
       <c r="C10">
-        <v>-0.1873952614296172</v>
+        <v>-0.1893242083611199</v>
       </c>
       <c r="D10">
-        <v>-0.004283053803138103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009889211127512513</v>
+      </c>
+      <c r="E10">
+        <v>0.04144268371119305</v>
+      </c>
+      <c r="F10">
+        <v>-0.05365646994853265</v>
+      </c>
+      <c r="G10">
+        <v>0.002179569685482558</v>
+      </c>
+      <c r="H10">
+        <v>-0.03552352824011538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03036415569323019</v>
+        <v>0.02868031030470233</v>
       </c>
       <c r="C11">
-        <v>0.04122174668626855</v>
+        <v>0.0453829576642374</v>
       </c>
       <c r="D11">
-        <v>-0.0598460398159702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0596380350188063</v>
+      </c>
+      <c r="E11">
+        <v>-0.008741644818883674</v>
+      </c>
+      <c r="F11">
+        <v>0.005292365012900816</v>
+      </c>
+      <c r="G11">
+        <v>-0.004640326380759048</v>
+      </c>
+      <c r="H11">
+        <v>0.03314750578931582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03664487665988248</v>
+        <v>0.03289767431510179</v>
       </c>
       <c r="C12">
-        <v>0.04238429616571936</v>
+        <v>0.04783530837434199</v>
       </c>
       <c r="D12">
-        <v>-0.05997324322574744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05581188532287863</v>
+      </c>
+      <c r="E12">
+        <v>0.001483578886167413</v>
+      </c>
+      <c r="F12">
+        <v>0.008245651979398935</v>
+      </c>
+      <c r="G12">
+        <v>0.003311906269064106</v>
+      </c>
+      <c r="H12">
+        <v>0.03497670550502888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01133601103260002</v>
+        <v>0.01708643608615073</v>
       </c>
       <c r="C13">
-        <v>0.03481287377053939</v>
+        <v>0.03800445010885079</v>
       </c>
       <c r="D13">
-        <v>-0.1400152596866456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1566355254209057</v>
+      </c>
+      <c r="E13">
+        <v>0.02825761293206834</v>
+      </c>
+      <c r="F13">
+        <v>-0.06247774562854484</v>
+      </c>
+      <c r="G13">
+        <v>0.01602365732635308</v>
+      </c>
+      <c r="H13">
+        <v>0.07602149905054519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.003470465742696339</v>
+        <v>0.006499846645537755</v>
       </c>
       <c r="C14">
-        <v>0.02142983669543638</v>
+        <v>0.02312902093481737</v>
       </c>
       <c r="D14">
-        <v>-0.09066168410629859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09390075556697622</v>
+      </c>
+      <c r="E14">
+        <v>0.03183097111342559</v>
+      </c>
+      <c r="F14">
+        <v>-0.01723995753006721</v>
+      </c>
+      <c r="G14">
+        <v>-0.002020834372441271</v>
+      </c>
+      <c r="H14">
+        <v>0.1002416356353663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002652803974424957</v>
+        <v>0.001290414971286779</v>
       </c>
       <c r="C15">
-        <v>0.004642358357546176</v>
+        <v>0.01226875212567667</v>
       </c>
       <c r="D15">
-        <v>-0.005513176690141483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03558767791132203</v>
+      </c>
+      <c r="E15">
+        <v>0.01050325871932645</v>
+      </c>
+      <c r="F15">
+        <v>-0.002308131560588307</v>
+      </c>
+      <c r="G15">
+        <v>-2.170787599100586e-05</v>
+      </c>
+      <c r="H15">
+        <v>0.02378112937723703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03070952489777743</v>
+        <v>0.02880643235207673</v>
       </c>
       <c r="C16">
-        <v>0.04282516847366589</v>
+        <v>0.04634831281174311</v>
       </c>
       <c r="D16">
-        <v>-0.0643126328754135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06164591085548274</v>
+      </c>
+      <c r="E16">
+        <v>0.008609097515376755</v>
+      </c>
+      <c r="F16">
+        <v>-0.0009095101859396945</v>
+      </c>
+      <c r="G16">
+        <v>-0.003613395701015088</v>
+      </c>
+      <c r="H16">
+        <v>0.04740827039726206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01013091211456052</v>
+        <v>0.007947589092224396</v>
       </c>
       <c r="C19">
-        <v>0.03032457172097478</v>
+        <v>0.02564455814250891</v>
       </c>
       <c r="D19">
-        <v>-0.1489565080726226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1140210407138593</v>
+      </c>
+      <c r="E19">
+        <v>0.05587094402913315</v>
+      </c>
+      <c r="F19">
+        <v>-0.00543232461078507</v>
+      </c>
+      <c r="G19">
+        <v>0.02270844241063573</v>
+      </c>
+      <c r="H19">
+        <v>0.05217669114244973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01291244583104086</v>
+        <v>0.01470830967704601</v>
       </c>
       <c r="C20">
-        <v>0.0307739143607785</v>
+        <v>0.03475513977624921</v>
       </c>
       <c r="D20">
-        <v>-0.09171670717558417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1033082445909299</v>
+      </c>
+      <c r="E20">
+        <v>0.04858673353573811</v>
+      </c>
+      <c r="F20">
+        <v>-0.01706763535879499</v>
+      </c>
+      <c r="G20">
+        <v>-0.008201450635232544</v>
+      </c>
+      <c r="H20">
+        <v>0.05463932268652661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006581697175287527</v>
+        <v>0.008532092816262793</v>
       </c>
       <c r="C21">
-        <v>0.03067611409942785</v>
+        <v>0.03736913551337127</v>
       </c>
       <c r="D21">
-        <v>-0.1387717341339861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.140325633865984</v>
+      </c>
+      <c r="E21">
+        <v>0.08190088345565293</v>
+      </c>
+      <c r="F21">
+        <v>-0.04928929658134364</v>
+      </c>
+      <c r="G21">
+        <v>-0.005809159287455576</v>
+      </c>
+      <c r="H21">
+        <v>0.08189495725526487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001440571392184982</v>
+        <v>0.007790084348465945</v>
       </c>
       <c r="C22">
-        <v>0.04745229939153548</v>
+        <v>0.04138215398401767</v>
       </c>
       <c r="D22">
-        <v>-0.1109182144863383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1621527116919036</v>
+      </c>
+      <c r="E22">
+        <v>0.01562816595714247</v>
+      </c>
+      <c r="F22">
+        <v>-0.0921953768757123</v>
+      </c>
+      <c r="G22">
+        <v>0.06140791758484127</v>
+      </c>
+      <c r="H22">
+        <v>0.04615623263849134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001290630335045866</v>
+        <v>0.007930842833406853</v>
       </c>
       <c r="C23">
-        <v>0.04775555289462113</v>
+        <v>0.04186875026530893</v>
       </c>
       <c r="D23">
-        <v>-0.1104721646382007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1614791635720405</v>
+      </c>
+      <c r="E23">
+        <v>0.01609433181706966</v>
+      </c>
+      <c r="F23">
+        <v>-0.09233363409622607</v>
+      </c>
+      <c r="G23">
+        <v>0.06066872088664522</v>
+      </c>
+      <c r="H23">
+        <v>0.04554772894240285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03382581648204945</v>
+        <v>0.03063464423836104</v>
       </c>
       <c r="C24">
-        <v>0.05314688179820028</v>
+        <v>0.05790109829751047</v>
       </c>
       <c r="D24">
-        <v>-0.06523663995899844</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06492299602840672</v>
+      </c>
+      <c r="E24">
+        <v>0.009773292282922241</v>
+      </c>
+      <c r="F24">
+        <v>0.0003407840470192156</v>
+      </c>
+      <c r="G24">
+        <v>-0.01468840652045787</v>
+      </c>
+      <c r="H24">
+        <v>0.05247089106645544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03843851318758698</v>
+        <v>0.03432953829186489</v>
       </c>
       <c r="C25">
-        <v>0.05105094859183893</v>
+        <v>0.05514783934990457</v>
       </c>
       <c r="D25">
-        <v>-0.06402414823009901</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06184781575663113</v>
+      </c>
+      <c r="E25">
+        <v>0.01053219499180109</v>
+      </c>
+      <c r="F25">
+        <v>-0.002152212495323791</v>
+      </c>
+      <c r="G25">
+        <v>5.928112630566879e-05</v>
+      </c>
+      <c r="H25">
+        <v>0.02651943681547708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01479623950372598</v>
+        <v>0.01569521785809043</v>
       </c>
       <c r="C26">
-        <v>0.009812030214410083</v>
+        <v>0.01827297632966654</v>
       </c>
       <c r="D26">
-        <v>-0.057483155121485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06279166634414296</v>
+      </c>
+      <c r="E26">
+        <v>0.02200859556775763</v>
+      </c>
+      <c r="F26">
+        <v>-0.01956533201781775</v>
+      </c>
+      <c r="G26">
+        <v>-0.00416784583778891</v>
+      </c>
+      <c r="H26">
+        <v>0.05906572948202271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1682903298683975</v>
+        <v>0.2158955155136468</v>
       </c>
       <c r="C28">
-        <v>-0.2642798998660429</v>
+        <v>-0.258857364554316</v>
       </c>
       <c r="D28">
-        <v>0.00472435109758871</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.001674677432133488</v>
+      </c>
+      <c r="E28">
+        <v>0.07714281942748828</v>
+      </c>
+      <c r="F28">
+        <v>-0.0415530322584165</v>
+      </c>
+      <c r="G28">
+        <v>-0.02384081152778788</v>
+      </c>
+      <c r="H28">
+        <v>-0.05647805090335888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-6.669168703336529e-05</v>
+        <v>0.003671486729917964</v>
       </c>
       <c r="C29">
-        <v>0.0222435073933724</v>
+        <v>0.02206117127343036</v>
       </c>
       <c r="D29">
-        <v>-0.07980099760375105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09164145461656045</v>
+      </c>
+      <c r="E29">
+        <v>0.02190616278914322</v>
+      </c>
+      <c r="F29">
+        <v>-0.03573286337215544</v>
+      </c>
+      <c r="G29">
+        <v>-0.01173390837962822</v>
+      </c>
+      <c r="H29">
+        <v>0.09648711211727139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02927152500611378</v>
+        <v>0.03675343721611311</v>
       </c>
       <c r="C30">
-        <v>0.05063660907143346</v>
+        <v>0.06233207189947441</v>
       </c>
       <c r="D30">
-        <v>-0.1610786410436066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1733110945376782</v>
+      </c>
+      <c r="E30">
+        <v>0.02110001455644128</v>
+      </c>
+      <c r="F30">
+        <v>-0.02733227401426908</v>
+      </c>
+      <c r="G30">
+        <v>-0.0283457846742519</v>
+      </c>
+      <c r="H30">
+        <v>0.06832633945339535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05996734727925724</v>
+        <v>0.05192264747649819</v>
       </c>
       <c r="C31">
-        <v>0.06462722545410249</v>
+        <v>0.07632258653313037</v>
       </c>
       <c r="D31">
-        <v>-0.0739682499818828</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05611090260360579</v>
+      </c>
+      <c r="E31">
+        <v>0.01758282977110369</v>
+      </c>
+      <c r="F31">
+        <v>-0.04325586277597555</v>
+      </c>
+      <c r="G31">
+        <v>0.006014395114262249</v>
+      </c>
+      <c r="H31">
+        <v>0.01542957003029416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009243597371871932</v>
+        <v>0.01504143021970064</v>
       </c>
       <c r="C32">
-        <v>0.01323771111763966</v>
+        <v>0.01626877424836931</v>
       </c>
       <c r="D32">
-        <v>-0.07646256851085305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1134548902571449</v>
+      </c>
+      <c r="E32">
+        <v>0.07259793290819384</v>
+      </c>
+      <c r="F32">
+        <v>-0.05333749706726357</v>
+      </c>
+      <c r="G32">
+        <v>-0.008637482347738286</v>
+      </c>
+      <c r="H32">
+        <v>0.06588738121480292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02303799519726938</v>
+        <v>0.02489129938418201</v>
       </c>
       <c r="C33">
-        <v>0.03790535879005932</v>
+        <v>0.04452017654885043</v>
       </c>
       <c r="D33">
-        <v>-0.1397413212840654</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.134664462761308</v>
+      </c>
+      <c r="E33">
+        <v>0.03720903435799627</v>
+      </c>
+      <c r="F33">
+        <v>-0.02613842918928819</v>
+      </c>
+      <c r="G33">
+        <v>-0.00116252078448641</v>
+      </c>
+      <c r="H33">
+        <v>0.0623332344203008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03121776411609057</v>
+        <v>0.0258167299561995</v>
       </c>
       <c r="C34">
-        <v>0.06525011565970482</v>
+        <v>0.06340307914675887</v>
       </c>
       <c r="D34">
-        <v>-0.06699325615962355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0551700344053697</v>
+      </c>
+      <c r="E34">
+        <v>-0.007700648083966748</v>
+      </c>
+      <c r="F34">
+        <v>0.0113605115545162</v>
+      </c>
+      <c r="G34">
+        <v>0.002874015808630589</v>
+      </c>
+      <c r="H34">
+        <v>0.04618646495780671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.000871702830565166</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009814442573672822</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007678008211944856</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002376088859379686</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007797986856241387</v>
+      </c>
+      <c r="G35">
+        <v>-9.934247820824018e-05</v>
+      </c>
+      <c r="H35">
+        <v>0.004368336541391682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01740616853690205</v>
+        <v>0.01862008836662262</v>
       </c>
       <c r="C36">
-        <v>0.007088533310654793</v>
+        <v>0.01536062648907167</v>
       </c>
       <c r="D36">
-        <v>-0.08024576434355962</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07805101669460718</v>
+      </c>
+      <c r="E36">
+        <v>0.02906826767895772</v>
+      </c>
+      <c r="F36">
+        <v>-0.01743835708092064</v>
+      </c>
+      <c r="G36">
+        <v>-0.01411525659674131</v>
+      </c>
+      <c r="H36">
+        <v>0.04832311831678248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01871049202635653</v>
+        <v>0.02153526510148281</v>
       </c>
       <c r="C38">
-        <v>0.01779095330421571</v>
+        <v>0.01923539453847754</v>
       </c>
       <c r="D38">
-        <v>-0.06435665615444981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06717935872292818</v>
+      </c>
+      <c r="E38">
+        <v>0.03531922276424591</v>
+      </c>
+      <c r="F38">
+        <v>0.01014934286930524</v>
+      </c>
+      <c r="G38">
+        <v>0.02211986007883017</v>
+      </c>
+      <c r="H38">
+        <v>0.0470087031682721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03640873049119009</v>
+        <v>0.03420566270428978</v>
       </c>
       <c r="C39">
-        <v>0.05567308895971525</v>
+        <v>0.06854104354572267</v>
       </c>
       <c r="D39">
-        <v>-0.08712320901715349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.102346758545175</v>
+      </c>
+      <c r="E39">
+        <v>0.01345621774476535</v>
+      </c>
+      <c r="F39">
+        <v>0.01956965998211631</v>
+      </c>
+      <c r="G39">
+        <v>-0.02782381965285668</v>
+      </c>
+      <c r="H39">
+        <v>0.09095722286569559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01364550272934433</v>
+        <v>0.01311075674448092</v>
       </c>
       <c r="C40">
-        <v>0.04071922536147417</v>
+        <v>0.03654647698509845</v>
       </c>
       <c r="D40">
-        <v>-0.08277323679799733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08825209344874929</v>
+      </c>
+      <c r="E40">
+        <v>0.03985567408471027</v>
+      </c>
+      <c r="F40">
+        <v>-0.1027516474390359</v>
+      </c>
+      <c r="G40">
+        <v>0.09813136202168549</v>
+      </c>
+      <c r="H40">
+        <v>0.1635995296431099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02442467165210743</v>
+        <v>0.02369441181113656</v>
       </c>
       <c r="C41">
-        <v>0.001728444917224421</v>
+        <v>0.008974547570387785</v>
       </c>
       <c r="D41">
-        <v>-0.06891400259251745</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05240575982744272</v>
+      </c>
+      <c r="E41">
+        <v>0.04947327482065456</v>
+      </c>
+      <c r="F41">
+        <v>-0.02016012072516215</v>
+      </c>
+      <c r="G41">
+        <v>0.01907202061259274</v>
+      </c>
+      <c r="H41">
+        <v>0.04350801250142229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02598926518012609</v>
+        <v>0.02331643422406706</v>
       </c>
       <c r="C43">
-        <v>0.01271512965735867</v>
+        <v>0.01815328014213742</v>
       </c>
       <c r="D43">
-        <v>-0.1094768349566779</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08372487899236206</v>
+      </c>
+      <c r="E43">
+        <v>0.02459200430901334</v>
+      </c>
+      <c r="F43">
+        <v>-0.01421037961620967</v>
+      </c>
+      <c r="G43">
+        <v>0.02043962649595272</v>
+      </c>
+      <c r="H43">
+        <v>0.05120745381088358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01148051165024781</v>
+        <v>0.01493910772807477</v>
       </c>
       <c r="C44">
-        <v>0.04155835907156452</v>
+        <v>0.03954922594390168</v>
       </c>
       <c r="D44">
-        <v>-0.08562834163161599</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1031224222766279</v>
+      </c>
+      <c r="E44">
+        <v>0.04909377069850613</v>
+      </c>
+      <c r="F44">
+        <v>-0.02730255224547936</v>
+      </c>
+      <c r="G44">
+        <v>0.006173840335983574</v>
+      </c>
+      <c r="H44">
+        <v>0.0635975659391039</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01218232714819801</v>
+        <v>0.01163351380262116</v>
       </c>
       <c r="C46">
-        <v>0.02453959529731665</v>
+        <v>0.0302167132615159</v>
       </c>
       <c r="D46">
-        <v>-0.0868820238712586</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08771253146246202</v>
+      </c>
+      <c r="E46">
+        <v>0.03382696346216715</v>
+      </c>
+      <c r="F46">
+        <v>-0.01592975166330673</v>
+      </c>
+      <c r="G46">
+        <v>-0.01571057503256949</v>
+      </c>
+      <c r="H46">
+        <v>0.0908585693465402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09221348338673517</v>
+        <v>0.08024810220271557</v>
       </c>
       <c r="C47">
-        <v>0.07326466147171848</v>
+        <v>0.09133437307758686</v>
       </c>
       <c r="D47">
-        <v>-0.04947076803893528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0360345860170208</v>
+      </c>
+      <c r="E47">
+        <v>0.03217593022471922</v>
+      </c>
+      <c r="F47">
+        <v>-0.03282092664230802</v>
+      </c>
+      <c r="G47">
+        <v>0.02275042944948252</v>
+      </c>
+      <c r="H47">
+        <v>-0.04473843302082609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01108236597725237</v>
+        <v>0.01402413481590416</v>
       </c>
       <c r="C48">
-        <v>0.0168550399323158</v>
+        <v>0.02061093845003833</v>
       </c>
       <c r="D48">
-        <v>-0.06914824848581891</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07231143901321023</v>
+      </c>
+      <c r="E48">
+        <v>0.05608866227389941</v>
+      </c>
+      <c r="F48">
+        <v>-0.02501626724458318</v>
+      </c>
+      <c r="G48">
+        <v>-0.01012005131687549</v>
+      </c>
+      <c r="H48">
+        <v>0.05637667491283318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05716335873283135</v>
+        <v>0.04938139541687527</v>
       </c>
       <c r="C50">
-        <v>0.05576485101836815</v>
+        <v>0.0675846943480555</v>
       </c>
       <c r="D50">
-        <v>-0.06419094258345279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05415387839501005</v>
+      </c>
+      <c r="E50">
+        <v>0.02206532790741886</v>
+      </c>
+      <c r="F50">
+        <v>-0.0465824215888355</v>
+      </c>
+      <c r="G50">
+        <v>0.03821897844228681</v>
+      </c>
+      <c r="H50">
+        <v>0.02306509979292131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01025851281817492</v>
+        <v>0.01042384872365984</v>
       </c>
       <c r="C51">
-        <v>0.01452234794998663</v>
+        <v>0.02101064847877778</v>
       </c>
       <c r="D51">
-        <v>-0.07832310390898496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08868804303495992</v>
+      </c>
+      <c r="E51">
+        <v>0.009081683987024686</v>
+      </c>
+      <c r="F51">
+        <v>-0.007046570087361905</v>
+      </c>
+      <c r="G51">
+        <v>-0.01655704710174126</v>
+      </c>
+      <c r="H51">
+        <v>0.08566477658358269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09009668951825159</v>
+        <v>0.08713352185722513</v>
       </c>
       <c r="C53">
-        <v>0.09294504344276529</v>
+        <v>0.1017700962309221</v>
       </c>
       <c r="D53">
-        <v>-0.01020258235205534</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01790877199278591</v>
+      </c>
+      <c r="E53">
+        <v>0.1002072259975374</v>
+      </c>
+      <c r="F53">
+        <v>-0.09243260801026167</v>
+      </c>
+      <c r="G53">
+        <v>-0.04087636689833226</v>
+      </c>
+      <c r="H53">
+        <v>-0.02915381152841624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02458157769812428</v>
+        <v>0.02552685265667975</v>
       </c>
       <c r="C54">
-        <v>0.02714303603750946</v>
+        <v>0.03342759165261078</v>
       </c>
       <c r="D54">
-        <v>-0.09351154402656078</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08677221221348508</v>
+      </c>
+      <c r="E54">
+        <v>0.03828414335687221</v>
+      </c>
+      <c r="F54">
+        <v>-0.008559809574019727</v>
+      </c>
+      <c r="G54">
+        <v>0.02322510298888427</v>
+      </c>
+      <c r="H54">
+        <v>0.08764596628494672</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09116769616966729</v>
+        <v>0.0842733830920598</v>
       </c>
       <c r="C55">
-        <v>0.0696854454188176</v>
+        <v>0.08099694720134948</v>
       </c>
       <c r="D55">
-        <v>0.0066640485414179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004137604959099591</v>
+      </c>
+      <c r="E55">
+        <v>0.04789754357379262</v>
+      </c>
+      <c r="F55">
+        <v>-0.06262684732041851</v>
+      </c>
+      <c r="G55">
+        <v>-0.01814437690379505</v>
+      </c>
+      <c r="H55">
+        <v>-0.01520560768818292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1385198883749956</v>
+        <v>0.1278945783497022</v>
       </c>
       <c r="C56">
-        <v>0.1023935722071288</v>
+        <v>0.1285683600644144</v>
       </c>
       <c r="D56">
-        <v>0.005489285839712002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00724966630569115</v>
+      </c>
+      <c r="E56">
+        <v>0.04713656251623101</v>
+      </c>
+      <c r="F56">
+        <v>-0.05809842224407653</v>
+      </c>
+      <c r="G56">
+        <v>0.01047059111199092</v>
+      </c>
+      <c r="H56">
+        <v>-0.0485815782765664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.004091228119193422</v>
+        <v>0.009688041135098909</v>
       </c>
       <c r="C58">
-        <v>0.01621770529779927</v>
+        <v>0.03602251309441386</v>
       </c>
       <c r="D58">
-        <v>-0.2741649946063555</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3129680961651882</v>
+      </c>
+      <c r="E58">
+        <v>0.07582763701946398</v>
+      </c>
+      <c r="F58">
+        <v>-0.09567526537776247</v>
+      </c>
+      <c r="G58">
+        <v>0.05920449796381765</v>
+      </c>
+      <c r="H58">
+        <v>-0.007719111896838539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.147806380825644</v>
+        <v>0.1815309389898602</v>
       </c>
       <c r="C59">
-        <v>-0.1777991853762531</v>
+        <v>-0.165639443979933</v>
       </c>
       <c r="D59">
-        <v>-0.04104096277939771</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05627215866061901</v>
+      </c>
+      <c r="E59">
+        <v>0.04184915631087101</v>
+      </c>
+      <c r="F59">
+        <v>0.03066256380108154</v>
+      </c>
+      <c r="G59">
+        <v>0.00347846563042278</v>
+      </c>
+      <c r="H59">
+        <v>-0.02054006795489534</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2421923006619421</v>
+        <v>0.2287593631677118</v>
       </c>
       <c r="C60">
-        <v>0.07586857336762931</v>
+        <v>0.103255486650787</v>
       </c>
       <c r="D60">
-        <v>-0.1944991490766226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1357108051821516</v>
+      </c>
+      <c r="E60">
+        <v>-0.3217688720986464</v>
+      </c>
+      <c r="F60">
+        <v>0.09157293073087004</v>
+      </c>
+      <c r="G60">
+        <v>-0.02998997169361623</v>
+      </c>
+      <c r="H60">
+        <v>-0.1535714640270106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04339151459748079</v>
+        <v>0.03972417487284358</v>
       </c>
       <c r="C61">
-        <v>0.0526932161398882</v>
+        <v>0.06212163268396696</v>
       </c>
       <c r="D61">
-        <v>-0.1011693268922347</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09324043236206696</v>
+      </c>
+      <c r="E61">
+        <v>0.004602125001990366</v>
+      </c>
+      <c r="F61">
+        <v>0.01342048415787347</v>
+      </c>
+      <c r="G61">
+        <v>-0.01094125187320044</v>
+      </c>
+      <c r="H61">
+        <v>0.05249241423681279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01601640427758957</v>
+        <v>0.01515570222810527</v>
       </c>
       <c r="C63">
-        <v>0.02163905484635559</v>
+        <v>0.03190189746259502</v>
       </c>
       <c r="D63">
-        <v>-0.07823914148920683</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0746728681656838</v>
+      </c>
+      <c r="E63">
+        <v>0.01280522701409805</v>
+      </c>
+      <c r="F63">
+        <v>-0.01376675129672733</v>
+      </c>
+      <c r="G63">
+        <v>-0.01572507852032928</v>
+      </c>
+      <c r="H63">
+        <v>0.05224331331620727</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05878266509443118</v>
+        <v>0.05096466381280806</v>
       </c>
       <c r="C64">
-        <v>0.07336703638213292</v>
+        <v>0.08099311757188105</v>
       </c>
       <c r="D64">
-        <v>-0.05566709623467402</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05595934421397018</v>
+      </c>
+      <c r="E64">
+        <v>0.01845090280748474</v>
+      </c>
+      <c r="F64">
+        <v>-0.004896156836493736</v>
+      </c>
+      <c r="G64">
+        <v>-0.06790479022817712</v>
+      </c>
+      <c r="H64">
+        <v>0.02998064491171895</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03987883589321482</v>
+        <v>0.03986378015910677</v>
       </c>
       <c r="C65">
-        <v>0.02122809909161802</v>
+        <v>0.02869741580916541</v>
       </c>
       <c r="D65">
-        <v>-0.1260396780239079</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1172171412251804</v>
+      </c>
+      <c r="E65">
+        <v>-0.01124044826327713</v>
+      </c>
+      <c r="F65">
+        <v>-0.01312386513781452</v>
+      </c>
+      <c r="G65">
+        <v>-0.001115174463363895</v>
+      </c>
+      <c r="H65">
+        <v>0.02339337571364245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0396541433659947</v>
+        <v>0.0376117794666557</v>
       </c>
       <c r="C66">
-        <v>0.06291854607612853</v>
+        <v>0.07764273141853537</v>
       </c>
       <c r="D66">
-        <v>-0.1072416564943641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1289480288246672</v>
+      </c>
+      <c r="E66">
+        <v>0.012918944706664</v>
+      </c>
+      <c r="F66">
+        <v>0.008662611991500379</v>
+      </c>
+      <c r="G66">
+        <v>-0.004429678602201502</v>
+      </c>
+      <c r="H66">
+        <v>0.06181214863358341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03974562293135489</v>
+        <v>0.03865179213377758</v>
       </c>
       <c r="C67">
-        <v>0.02304441231151203</v>
+        <v>0.02633685978181157</v>
       </c>
       <c r="D67">
-        <v>-0.03548004312160584</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02790463857662894</v>
+      </c>
+      <c r="E67">
+        <v>0.01251230717316658</v>
+      </c>
+      <c r="F67">
+        <v>0.01795712973719363</v>
+      </c>
+      <c r="G67">
+        <v>0.01741005750217215</v>
+      </c>
+      <c r="H67">
+        <v>0.04264517096552808</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1685516898736888</v>
+        <v>0.2006299127901726</v>
       </c>
       <c r="C68">
-        <v>-0.2206576118520365</v>
+        <v>-0.1960779583241187</v>
       </c>
       <c r="D68">
-        <v>-0.01764567926142682</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02412061942548043</v>
+      </c>
+      <c r="E68">
+        <v>0.02676196651954009</v>
+      </c>
+      <c r="F68">
+        <v>-0.03017021388324416</v>
+      </c>
+      <c r="G68">
+        <v>0.0001677496778273754</v>
+      </c>
+      <c r="H68">
+        <v>0.01300566570512037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08277936548243744</v>
+        <v>0.07177306866994736</v>
       </c>
       <c r="C69">
-        <v>0.08834111596753208</v>
+        <v>0.09879405343307719</v>
       </c>
       <c r="D69">
-        <v>-0.07021058230967894</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.05157554045621469</v>
+      </c>
+      <c r="E69">
+        <v>0.02066688538527739</v>
+      </c>
+      <c r="F69">
+        <v>-0.01387147784623225</v>
+      </c>
+      <c r="G69">
+        <v>0.009551358114182788</v>
+      </c>
+      <c r="H69">
+        <v>-0.01916777980305018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1516546910198011</v>
+        <v>0.1855936152682406</v>
       </c>
       <c r="C71">
-        <v>-0.2209336165248427</v>
+        <v>-0.2030502779392957</v>
       </c>
       <c r="D71">
-        <v>-0.03011128917836156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03748274297116785</v>
+      </c>
+      <c r="E71">
+        <v>0.04400737604863908</v>
+      </c>
+      <c r="F71">
+        <v>-0.06823363035498335</v>
+      </c>
+      <c r="G71">
+        <v>0.02915458192632666</v>
+      </c>
+      <c r="H71">
+        <v>-0.00191689293659121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1063728666868236</v>
+        <v>0.09995872294598852</v>
       </c>
       <c r="C72">
-        <v>0.05429822791164069</v>
+        <v>0.07653355133068053</v>
       </c>
       <c r="D72">
-        <v>-0.0913417330455679</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09522383580886737</v>
+      </c>
+      <c r="E72">
+        <v>-0.04900733981774196</v>
+      </c>
+      <c r="F72">
+        <v>-0.02798624173733092</v>
+      </c>
+      <c r="G72">
+        <v>-0.04032929779420971</v>
+      </c>
+      <c r="H72">
+        <v>0.03394503656826786</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2577212852005719</v>
+        <v>0.2364560203231522</v>
       </c>
       <c r="C73">
-        <v>0.04038569863849231</v>
+        <v>0.09363950202104052</v>
       </c>
       <c r="D73">
-        <v>-0.2997159994548219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1747244960845979</v>
+      </c>
+      <c r="E73">
+        <v>-0.6200854998761279</v>
+      </c>
+      <c r="F73">
+        <v>0.2052045831225202</v>
+      </c>
+      <c r="G73">
+        <v>-0.05688069182514272</v>
+      </c>
+      <c r="H73">
+        <v>-0.1914606282433617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1058619399382253</v>
+        <v>0.0952245796954337</v>
       </c>
       <c r="C74">
-        <v>0.0729423956181625</v>
+        <v>0.09153736878817317</v>
       </c>
       <c r="D74">
-        <v>0.006149528300663515</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01221097140036045</v>
+      </c>
+      <c r="E74">
+        <v>0.03880635128929234</v>
+      </c>
+      <c r="F74">
+        <v>-0.07527911609384222</v>
+      </c>
+      <c r="G74">
+        <v>-0.03692096428525569</v>
+      </c>
+      <c r="H74">
+        <v>-0.05639789408108887</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2493957049844697</v>
+        <v>0.2238661718316719</v>
       </c>
       <c r="C75">
-        <v>0.1306647164967335</v>
+        <v>0.1668874412001908</v>
       </c>
       <c r="D75">
-        <v>0.07479227387600861</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09695236848262571</v>
+      </c>
+      <c r="E75">
+        <v>0.1012003410470832</v>
+      </c>
+      <c r="F75">
+        <v>-0.03233792612320172</v>
+      </c>
+      <c r="G75">
+        <v>0.003122318968923559</v>
+      </c>
+      <c r="H75">
+        <v>-0.09429351824688036</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.137592925762543</v>
+        <v>0.1236764440946</v>
       </c>
       <c r="C76">
-        <v>0.09650648867807698</v>
+        <v>0.1138561802165769</v>
       </c>
       <c r="D76">
-        <v>0.004056667527768698</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.007996267049800082</v>
+      </c>
+      <c r="E76">
+        <v>0.09923377227787385</v>
+      </c>
+      <c r="F76">
+        <v>-0.04977530446534689</v>
+      </c>
+      <c r="G76">
+        <v>-0.02465847042311245</v>
+      </c>
+      <c r="H76">
+        <v>0.0005225296837752867</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05161788935652079</v>
+        <v>0.05681554078145958</v>
       </c>
       <c r="C77">
-        <v>0.06408576012748016</v>
+        <v>0.07505642529306701</v>
       </c>
       <c r="D77">
-        <v>-0.0459927762253635</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1305831074371726</v>
+      </c>
+      <c r="E77">
+        <v>0.3673461267635205</v>
+      </c>
+      <c r="F77">
+        <v>0.2829178856814027</v>
+      </c>
+      <c r="G77">
+        <v>0.5311891746241946</v>
+      </c>
+      <c r="H77">
+        <v>-0.5773832828579688</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04182844027888562</v>
+        <v>0.04479770753967359</v>
       </c>
       <c r="C78">
-        <v>0.06047209891926792</v>
+        <v>0.06730301059785317</v>
       </c>
       <c r="D78">
-        <v>-0.1312139817759588</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1362854643992118</v>
+      </c>
+      <c r="E78">
+        <v>0.01500191221795359</v>
+      </c>
+      <c r="F78">
+        <v>-0.03508818727873527</v>
+      </c>
+      <c r="G78">
+        <v>0.005805952694754341</v>
+      </c>
+      <c r="H78">
+        <v>0.00634306349732906</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04237130954523547</v>
+        <v>0.04921213287370065</v>
       </c>
       <c r="C79">
-        <v>0.08230386923585387</v>
+        <v>0.09851601311539493</v>
       </c>
       <c r="D79">
-        <v>0.08455785887195891</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02453323013763615</v>
+      </c>
+      <c r="E79">
+        <v>0.2095747745850736</v>
+      </c>
+      <c r="F79">
+        <v>-0.3471250415096669</v>
+      </c>
+      <c r="G79">
+        <v>-0.629287408648567</v>
+      </c>
+      <c r="H79">
+        <v>-0.436759860379734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02563137460951871</v>
+        <v>0.02424300651011109</v>
       </c>
       <c r="C80">
-        <v>0.04601901426585936</v>
+        <v>0.04711424315193221</v>
       </c>
       <c r="D80">
-        <v>-0.01766097839514743</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01840010564905115</v>
+      </c>
+      <c r="E80">
+        <v>0.01565804504397426</v>
+      </c>
+      <c r="F80">
+        <v>-0.007123331065586847</v>
+      </c>
+      <c r="G80">
+        <v>-0.007872491549087791</v>
+      </c>
+      <c r="H80">
+        <v>0.06774955462867795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1373691831238199</v>
+        <v>0.1194170926174467</v>
       </c>
       <c r="C81">
-        <v>0.1031123852872854</v>
+        <v>0.1236054901753753</v>
       </c>
       <c r="D81">
-        <v>0.0712861296871365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07576056215951593</v>
+      </c>
+      <c r="E81">
+        <v>0.0955452698884159</v>
+      </c>
+      <c r="F81">
+        <v>-0.06822173586968497</v>
+      </c>
+      <c r="G81">
+        <v>-0.002844072152855807</v>
+      </c>
+      <c r="H81">
+        <v>-0.02389166074208623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3137576724020733</v>
+        <v>0.2607891813509425</v>
       </c>
       <c r="C82">
-        <v>0.2655157894655433</v>
+        <v>0.2712592214317514</v>
       </c>
       <c r="D82">
-        <v>0.2421017662490765</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2392860472121008</v>
+      </c>
+      <c r="E82">
+        <v>-0.01861458246623999</v>
+      </c>
+      <c r="F82">
+        <v>-0.01664071379340465</v>
+      </c>
+      <c r="G82">
+        <v>0.1794826408381143</v>
+      </c>
+      <c r="H82">
+        <v>0.02442289033125621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02847847277238851</v>
+        <v>0.02082137733062069</v>
       </c>
       <c r="C83">
-        <v>0.05380278882282033</v>
+        <v>0.05037883192323</v>
       </c>
       <c r="D83">
-        <v>-0.05233920984352567</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.051226886848637</v>
+      </c>
+      <c r="E83">
+        <v>0.03436154322327508</v>
+      </c>
+      <c r="F83">
+        <v>0.05780856496472422</v>
+      </c>
+      <c r="G83">
+        <v>0.06410886775596925</v>
+      </c>
+      <c r="H83">
+        <v>-0.04870999773381264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0007869536120155827</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.005100092124800203</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01857286234641422</v>
+      </c>
+      <c r="E84">
+        <v>0.01671464785447582</v>
+      </c>
+      <c r="F84">
+        <v>-0.01643782168290767</v>
+      </c>
+      <c r="G84">
+        <v>-0.001600045011849356</v>
+      </c>
+      <c r="H84">
+        <v>0.02299797654229496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.172127972076879</v>
+        <v>0.152370339436667</v>
       </c>
       <c r="C85">
-        <v>0.1128174838223504</v>
+        <v>0.1407036790911354</v>
       </c>
       <c r="D85">
-        <v>0.03401137621295125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05976163288468852</v>
+      </c>
+      <c r="E85">
+        <v>0.02946814223166675</v>
+      </c>
+      <c r="F85">
+        <v>-0.05955458206353497</v>
+      </c>
+      <c r="G85">
+        <v>-0.08798066676260984</v>
+      </c>
+      <c r="H85">
+        <v>-0.034011471813601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01748640416914792</v>
+        <v>0.01855609065638239</v>
       </c>
       <c r="C86">
-        <v>0.03474582269601289</v>
+        <v>0.03341373263431119</v>
       </c>
       <c r="D86">
-        <v>-0.1172490517618123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1170828355427609</v>
+      </c>
+      <c r="E86">
+        <v>0.03211370851232338</v>
+      </c>
+      <c r="F86">
+        <v>0.003414369998321694</v>
+      </c>
+      <c r="G86">
+        <v>0.07643540539757591</v>
+      </c>
+      <c r="H86">
+        <v>-0.01013316628763906</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02149722518281156</v>
+        <v>0.0322792240525446</v>
       </c>
       <c r="C87">
-        <v>0.01696025229964408</v>
+        <v>0.02475009849710395</v>
       </c>
       <c r="D87">
-        <v>-0.09985102495092103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1307320242858159</v>
+      </c>
+      <c r="E87">
+        <v>0.05790745713626513</v>
+      </c>
+      <c r="F87">
+        <v>-0.01912025480261567</v>
+      </c>
+      <c r="G87">
+        <v>0.002576197304870093</v>
+      </c>
+      <c r="H87">
+        <v>0.0602894524981168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07513054989978998</v>
+        <v>0.06630413411382095</v>
       </c>
       <c r="C88">
-        <v>0.03988296945837897</v>
+        <v>0.05361039420249012</v>
       </c>
       <c r="D88">
-        <v>-0.04830137408605487</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02389906914495838</v>
+      </c>
+      <c r="E88">
+        <v>-0.003783488135144285</v>
+      </c>
+      <c r="F88">
+        <v>-0.02997700199701004</v>
+      </c>
+      <c r="G88">
+        <v>-0.008851173900817336</v>
+      </c>
+      <c r="H88">
+        <v>0.02534787499579254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2354637451926971</v>
+        <v>0.2838357161297551</v>
       </c>
       <c r="C89">
-        <v>-0.3949169358245725</v>
+        <v>-0.3447793749743133</v>
       </c>
       <c r="D89">
-        <v>0.01226836338305112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001923477019345256</v>
+      </c>
+      <c r="E89">
+        <v>0.06292218388196109</v>
+      </c>
+      <c r="F89">
+        <v>-0.0009237710912636259</v>
+      </c>
+      <c r="G89">
+        <v>-0.04888550445201632</v>
+      </c>
+      <c r="H89">
+        <v>0.08503529542996212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2078689035360586</v>
+        <v>0.2424357841359286</v>
       </c>
       <c r="C90">
-        <v>-0.2967959560306767</v>
+        <v>-0.247142634636514</v>
       </c>
       <c r="D90">
-        <v>0.001573631051748701</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02059872393589627</v>
+      </c>
+      <c r="E90">
+        <v>0.04792184969737628</v>
+      </c>
+      <c r="F90">
+        <v>-0.0007440701898140815</v>
+      </c>
+      <c r="G90">
+        <v>0.04329116052170993</v>
+      </c>
+      <c r="H90">
+        <v>0.04951498630123861</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1758650695911461</v>
+        <v>0.152128207438316</v>
       </c>
       <c r="C91">
-        <v>0.1461992130382827</v>
+        <v>0.1591856309696068</v>
       </c>
       <c r="D91">
-        <v>0.08207767053494415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08491760703897533</v>
+      </c>
+      <c r="E91">
+        <v>0.09967104256486242</v>
+      </c>
+      <c r="F91">
+        <v>-0.07135572178407119</v>
+      </c>
+      <c r="G91">
+        <v>-0.04254602720645706</v>
+      </c>
+      <c r="H91">
+        <v>-0.09093135825586243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1827778314347978</v>
+        <v>0.228993522884443</v>
       </c>
       <c r="C92">
-        <v>-0.2793264648793166</v>
+        <v>-0.2691098883059552</v>
       </c>
       <c r="D92">
-        <v>-0.02113025128452209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03126361490048964</v>
+      </c>
+      <c r="E92">
+        <v>0.08560032242537918</v>
+      </c>
+      <c r="F92">
+        <v>-0.0127895160380004</v>
+      </c>
+      <c r="G92">
+        <v>0.02881296523371791</v>
+      </c>
+      <c r="H92">
+        <v>0.01454261257090226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2331623239311336</v>
+        <v>0.2616185593175022</v>
       </c>
       <c r="C93">
-        <v>-0.303713623761875</v>
+        <v>-0.2551180208568531</v>
       </c>
       <c r="D93">
-        <v>-0.009645092355114552</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.00595705842767894</v>
+      </c>
+      <c r="E93">
+        <v>-0.01516267071924883</v>
+      </c>
+      <c r="F93">
+        <v>-0.02430627859449961</v>
+      </c>
+      <c r="G93">
+        <v>-0.00951288081134289</v>
+      </c>
+      <c r="H93">
+        <v>0.006391039718076721</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3771824591190299</v>
+        <v>0.3318702384985985</v>
       </c>
       <c r="C94">
-        <v>0.2114961745812086</v>
+        <v>0.2627508134916653</v>
       </c>
       <c r="D94">
-        <v>0.4430697197515499</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4426471630831968</v>
+      </c>
+      <c r="E94">
+        <v>0.04524409715182342</v>
+      </c>
+      <c r="F94">
+        <v>0.04545962433892167</v>
+      </c>
+      <c r="G94">
+        <v>0.1056309155074197</v>
+      </c>
+      <c r="H94">
+        <v>0.3626643558670508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06886213331133975</v>
+        <v>0.06649441537378581</v>
       </c>
       <c r="C95">
-        <v>0.05690042444801089</v>
+        <v>0.0626931521155992</v>
       </c>
       <c r="D95">
-        <v>-0.06931984986764091</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08239442684970871</v>
+      </c>
+      <c r="E95">
+        <v>0.2980145011423739</v>
+      </c>
+      <c r="F95">
+        <v>0.7820656174893054</v>
+      </c>
+      <c r="G95">
+        <v>-0.4330557395264002</v>
+      </c>
+      <c r="H95">
+        <v>0.1365165706073302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1686611055271316</v>
+        <v>0.1627359912399873</v>
       </c>
       <c r="C98">
-        <v>0.03903453261320113</v>
+        <v>0.07049753239626812</v>
       </c>
       <c r="D98">
-        <v>-0.1642738561813001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1261837349077735</v>
+      </c>
+      <c r="E98">
+        <v>-0.3038658323544957</v>
+      </c>
+      <c r="F98">
+        <v>0.04417147698239965</v>
+      </c>
+      <c r="G98">
+        <v>-0.03460204250182238</v>
+      </c>
+      <c r="H98">
+        <v>-0.1001858506123282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-3.069148865941714e-05</v>
+        <v>0.003756379752256051</v>
       </c>
       <c r="C101">
-        <v>0.02159202021891377</v>
+        <v>0.02130122634462205</v>
       </c>
       <c r="D101">
-        <v>-0.07992596605800309</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09149046996226572</v>
+      </c>
+      <c r="E101">
+        <v>0.02269824517927985</v>
+      </c>
+      <c r="F101">
+        <v>-0.03527757368723845</v>
+      </c>
+      <c r="G101">
+        <v>-0.01187626700241837</v>
+      </c>
+      <c r="H101">
+        <v>0.09592414629362914</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1228683346654816</v>
+        <v>0.1020910757299647</v>
       </c>
       <c r="C102">
-        <v>0.1176297378264109</v>
+        <v>0.1210687108467413</v>
       </c>
       <c r="D102">
-        <v>0.05261716055777672</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06403796168194953</v>
+      </c>
+      <c r="E102">
+        <v>0.03043841625603086</v>
+      </c>
+      <c r="F102">
+        <v>0.005236950915180006</v>
+      </c>
+      <c r="G102">
+        <v>0.01997565450652931</v>
+      </c>
+      <c r="H102">
+        <v>-0.02885034830999807</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
